--- a/data/trans_bre/P16A07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Edad-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Edad-trans_bre.xlsx
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6050943744134631</v>
+        <v>0.6150045563061135</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8673021630753649</v>
+        <v>-0.8651588552714951</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.74109631254116</v>
+        <v>-0.7322024818479427</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4575157827994165</v>
+        <v>-0.5750823978121405</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.193141581421416</v>
+        <v>3.077482294701603</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.18365831320356</v>
+        <v>1.25404356764735</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.243342759335005</v>
+        <v>1.446460034019995</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.13650155521581</v>
+        <v>4.517934604841906</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -744,28 +744,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3535981203091263</v>
+        <v>0.3851753587637066</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.1654289457075053</v>
+        <v>-0.3703241393309413</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.1364237759935709</v>
+        <v>-0.1779809867690821</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.226290312454412</v>
+        <v>0.1350179096250735</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03408404545084132</v>
+        <v>0.04456412388799982</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1475575759498391</v>
+        <v>-0.2880417198914261</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.244083340272989</v>
+        <v>-0.2776974922527913</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2323505560185033</v>
+        <v>-0.1924729987069307</v>
       </c>
     </row>
     <row r="9">
@@ -776,28 +776,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.620025831538889</v>
+        <v>3.565614350802483</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.640416607446249</v>
+        <v>3.374521187971687</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.689107615273395</v>
+        <v>2.416499448842913</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.995453911571</v>
+        <v>3.678858473260079</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.370636752204605</v>
+        <v>5.102100794378096</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.85393995571537</v>
+        <v>3.563270842721064</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.504681432316927</v>
+        <v>5.84748044243372</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>13.95675576523459</v>
+        <v>12.20946410771189</v>
       </c>
     </row>
     <row r="10">
@@ -844,28 +844,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2627757739405943</v>
+        <v>-0.2919259788743466</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.318224292576254</v>
+        <v>2.182565453605891</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.309810196569405</v>
+        <v>0.2074009076676903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.02296172594243785</v>
+        <v>0.05574320806417091</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1234040972573821</v>
+        <v>-0.1237272747680038</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4754681165597076</v>
+        <v>0.4315438383729563</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05706147692109814</v>
+        <v>0.01332138934412691</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.0521895053378978</v>
+        <v>-0.04457455892992948</v>
       </c>
     </row>
     <row r="12">
@@ -876,28 +876,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.438536037507457</v>
+        <v>3.383173022867794</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.546382971475612</v>
+        <v>7.348273343096891</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.128436151839936</v>
+        <v>3.948299767979874</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.793782413365161</v>
+        <v>3.960732778938968</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.387710725324002</v>
+        <v>2.508618800869151</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.450853643075093</v>
+        <v>3.374851253288111</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.075487154100199</v>
+        <v>2.780198293491442</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.62636691686592</v>
+        <v>2.627638718189522</v>
       </c>
     </row>
     <row r="13">
@@ -921,7 +921,7 @@
         <v>6.023249120597618</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.007491629671247</v>
+        <v>3.007491629671249</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.952779962064104</v>
@@ -933,7 +933,7 @@
         <v>2.388000502904965</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.563577514823735</v>
+        <v>0.5635775148237356</v>
       </c>
     </row>
     <row r="14">
@@ -944,28 +944,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.961809975754966</v>
+        <v>3.931316490458606</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.247185519217642</v>
+        <v>3.099352356887326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.509221326559707</v>
+        <v>3.589735238417023</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4510268261064814</v>
+        <v>0.450524337557868</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.015236212303222</v>
+        <v>1.024946807089883</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6407760294458529</v>
+        <v>0.6381742373960945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9640360354387406</v>
+        <v>0.9255401676508495</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04983853490494312</v>
+        <v>0.06018126271760218</v>
       </c>
     </row>
     <row r="15">
@@ -976,28 +976,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.639407291540723</v>
+        <v>9.503996517706705</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.697842335722138</v>
+        <v>8.89510424968274</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.805972708644488</v>
+        <v>8.69484695946308</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.223641404308625</v>
+        <v>5.538788771292354</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7.300091672661862</v>
+        <v>6.686251255462317</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.789440691427485</v>
+        <v>3.931697455912496</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5.373487920090157</v>
+        <v>5.270261448475277</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.28363591771551</v>
+        <v>1.38627521851047</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         <v>7.257052137337301</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.965064349033658</v>
+        <v>6.965064349033659</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>2.492501342999061</v>
@@ -1044,28 +1044,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.179654554030374</v>
+        <v>5.240828085363505</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.542243410156344</v>
+        <v>6.080543859085485</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.690225771991202</v>
+        <v>3.689117544941788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.446328477683712</v>
+        <v>4.264621519147377</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9390132418245302</v>
+        <v>1.032038495634378</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6915030125972517</v>
+        <v>0.7074448812725707</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5811772749171814</v>
+        <v>0.6118972027729931</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.5721300982172192</v>
+        <v>0.5691713226289796</v>
       </c>
     </row>
     <row r="18">
@@ -1076,28 +1076,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.77158540597214</v>
+        <v>12.64970969161187</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.64646547283755</v>
+        <v>14.26782912019815</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.82098406471138</v>
+        <v>10.97204221991741</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.965076644033557</v>
+        <v>9.827825411527229</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5.155514497563673</v>
+        <v>5.485965841329723</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.606763510410219</v>
+        <v>3.379748297939345</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.183867564337353</v>
+        <v>3.97801350719565</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.222891291286525</v>
+        <v>2.265313175663541</v>
       </c>
     </row>
     <row r="19">
@@ -1121,7 +1121,7 @@
         <v>11.39021817359992</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9.556210280573595</v>
+        <v>9.556210280573591</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.720414387925051</v>
@@ -1133,7 +1133,7 @@
         <v>5.746602264700465</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>4.071558367684667</v>
+        <v>4.071558367684666</v>
       </c>
     </row>
     <row r="20">
@@ -1144,28 +1144,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.45575337825458</v>
+        <v>2.224376507465017</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.563387444692212</v>
+        <v>3.916259026981915</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.577429987842195</v>
+        <v>8.012281947834749</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.786607234329131</v>
+        <v>7.075708113024036</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4420603280461816</v>
+        <v>0.4025357016064905</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4925681009854955</v>
+        <v>0.5438306505059771</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>2.296345546989794</v>
+        <v>2.332184874351052</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.813458048796338</v>
+        <v>1.853319025160985</v>
       </c>
     </row>
     <row r="21">
@@ -1176,28 +1176,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.20650420445038</v>
+        <v>9.831360408881558</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>13.24146725608006</v>
+        <v>12.85325192057994</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.19707348195492</v>
+        <v>15.73465611760817</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12.64478963041136</v>
+        <v>12.0673450483306</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.725545008884877</v>
+        <v>4.319352744411971</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.848976562130018</v>
+        <v>5.066038579137368</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>15.31833264338565</v>
+        <v>14.50868513898011</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>8.392927594510224</v>
+        <v>8.915680292480962</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1233,7 @@
         <v>1.949328214090321</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.655979456643819</v>
+        <v>0.6559794566438191</v>
       </c>
     </row>
     <row r="23">
@@ -1244,28 +1244,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5401941792514916</v>
+        <v>0.3885929519008944</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8106554538398751</v>
+        <v>1.085803732254593</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.740511191793375</v>
+        <v>3.709568370909171</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7268806391942477</v>
+        <v>0.4918671542192204</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.04451708698781735</v>
+        <v>-0.005065842201102928</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.007973666570199293</v>
+        <v>0.102565435859484</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5730448892218876</v>
+        <v>0.5329098711626388</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.06503098982567143</v>
+        <v>0.06206631957517588</v>
       </c>
     </row>
     <row r="24">
@@ -1276,28 +1276,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.655408311520194</v>
+        <v>9.559592130526983</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.09564134277719</v>
+        <v>10.1491565186619</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.1146645520055</v>
+        <v>12.14522289268498</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.833828839108656</v>
+        <v>6.915390103620274</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.607285757645951</v>
+        <v>3.63221904078797</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.985448902091877</v>
+        <v>3.032169847343568</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>4.567212243514843</v>
+        <v>4.646310538283061</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.513798019427219</v>
+        <v>1.698937314583354</v>
       </c>
     </row>
     <row r="25">
@@ -1344,28 +1344,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.395792087647219</v>
+        <v>3.39518189521986</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.104312447965839</v>
+        <v>3.960478263885763</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.870485447226018</v>
+        <v>3.889409551329162</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.322469341867423</v>
+        <v>3.179765028200274</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1.297666808556689</v>
+        <v>1.321036077538382</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.084142644611688</v>
+        <v>1.020214152398302</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.488023451829572</v>
+        <v>1.498525595719035</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.8287377365617876</v>
+        <v>0.8208718964646869</v>
       </c>
     </row>
     <row r="27">
@@ -1376,28 +1376,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.316635208909421</v>
+        <v>5.371118339755648</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.347291713494703</v>
+        <v>6.271620343190808</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.908975444070165</v>
+        <v>6.005516167170255</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.141270137897526</v>
+        <v>5.178474738591185</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.949560017332101</v>
+        <v>3.096555725901951</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.340639235810836</v>
+        <v>2.320374566639767</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.206510637717592</v>
+        <v>3.28197155445494</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.677008154108517</v>
+        <v>1.743321879638269</v>
       </c>
     </row>
     <row r="28">
